--- a/acciones171.xlsx
+++ b/acciones171.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="297">
   <si>
     <t>No.</t>
   </si>
@@ -70,40 +70,40 @@
     <t>1.38</t>
   </si>
   <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>-5.05%</t>
-  </si>
-  <si>
-    <t>-2.49%</t>
-  </si>
-  <si>
-    <t>-1.56%</t>
-  </si>
-  <si>
-    <t>-11.75%</t>
-  </si>
-  <si>
-    <t>9.55%</t>
-  </si>
-  <si>
-    <t>38.12</t>
-  </si>
-  <si>
-    <t>66.19</t>
-  </si>
-  <si>
-    <t>-0.08%</t>
-  </si>
-  <si>
-    <t>0.68%</t>
-  </si>
-  <si>
-    <t>-0.75%</t>
-  </si>
-  <si>
-    <t>540,351</t>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>-3.20%</t>
+  </si>
+  <si>
+    <t>-0.96%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>-10.35%</t>
+  </si>
+  <si>
+    <t>11.29%</t>
+  </si>
+  <si>
+    <t>45.78</t>
+  </si>
+  <si>
+    <t>67.24</t>
+  </si>
+  <si>
+    <t>-0.33%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>1,150,159</t>
   </si>
   <si>
     <t>2</t>
@@ -115,799 +115,796 @@
     <t>-</t>
   </si>
   <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>-12.13%</t>
-  </si>
-  <si>
-    <t>-14.79%</t>
-  </si>
-  <si>
-    <t>-24.53%</t>
-  </si>
-  <si>
-    <t>-42.63%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>30.20</t>
-  </si>
-  <si>
-    <t>35.77</t>
-  </si>
-  <si>
-    <t>0.28%</t>
-  </si>
-  <si>
-    <t>0.93%</t>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>-9.23%</t>
+  </si>
+  <si>
+    <t>-12.97%</t>
+  </si>
+  <si>
+    <t>-23.13%</t>
+  </si>
+  <si>
+    <t>-41.79%</t>
+  </si>
+  <si>
+    <t>3.32%</t>
+  </si>
+  <si>
+    <t>34.52</t>
+  </si>
+  <si>
+    <t>36.29</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>-0.26%</t>
+  </si>
+  <si>
+    <t>0.55%</t>
+  </si>
+  <si>
+    <t>4,008,255</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AAAU</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>2.11%</t>
+  </si>
+  <si>
+    <t>-0.62%</t>
+  </si>
+  <si>
+    <t>4.21%</t>
+  </si>
+  <si>
+    <t>61.94</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>-0.05%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>7,413</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AABA</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>-4.53%</t>
+  </si>
+  <si>
+    <t>-7.15%</t>
+  </si>
+  <si>
+    <t>-14.72%</t>
+  </si>
+  <si>
+    <t>-24.55%</t>
+  </si>
+  <si>
+    <t>7.98%</t>
+  </si>
+  <si>
+    <t>42.13</t>
+  </si>
+  <si>
+    <t>62.21</t>
+  </si>
+  <si>
+    <t>-0.99%</t>
+  </si>
+  <si>
+    <t>-1.32%</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>3,410,876</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>-3.33%</t>
+  </si>
+  <si>
+    <t>-14.99%</t>
+  </si>
+  <si>
+    <t>-29.21%</t>
+  </si>
+  <si>
+    <t>-46.84%</t>
+  </si>
+  <si>
+    <t>6.00%</t>
+  </si>
+  <si>
+    <t>36.30</t>
+  </si>
+  <si>
+    <t>6.89</t>
+  </si>
+  <si>
+    <t>-0.29%</t>
+  </si>
+  <si>
+    <t>112,365</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>AADR</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>-3.00%</t>
+  </si>
+  <si>
+    <t>-2.99%</t>
+  </si>
+  <si>
+    <t>-11.91%</t>
+  </si>
+  <si>
+    <t>-21.97%</t>
+  </si>
+  <si>
+    <t>5.56%</t>
+  </si>
+  <si>
+    <t>44.17</t>
+  </si>
+  <si>
+    <t>49.94</t>
+  </si>
+  <si>
+    <t>-0.77%</t>
+  </si>
+  <si>
+    <t>-0.14%</t>
   </si>
   <si>
     <t>-0.64%</t>
   </si>
   <si>
-    <t>1,130,546</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>AAAU</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>2.35%</t>
-  </si>
-  <si>
-    <t>2.52%</t>
+    <t>13,531</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>-10.21%</t>
+  </si>
+  <si>
+    <t>-12.28%</t>
+  </si>
+  <si>
+    <t>-24.60%</t>
+  </si>
+  <si>
+    <t>-42.76%</t>
+  </si>
+  <si>
+    <t>9.98%</t>
+  </si>
+  <si>
+    <t>37.52</t>
+  </si>
+  <si>
+    <t>33.82</t>
+  </si>
+  <si>
+    <t>1.62%</t>
+  </si>
+  <si>
+    <t>-1.83%</t>
+  </si>
+  <si>
+    <t>3.52%</t>
+  </si>
+  <si>
+    <t>12,084,158</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>AAMC</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>-11.95%</t>
+  </si>
+  <si>
+    <t>-17.88%</t>
+  </si>
+  <si>
+    <t>-27.32%</t>
+  </si>
+  <si>
+    <t>-43.06%</t>
+  </si>
+  <si>
+    <t>6.91%</t>
+  </si>
+  <si>
+    <t>32.64</t>
+  </si>
+  <si>
+    <t>50.25</t>
+  </si>
+  <si>
+    <t>-3.79%</t>
+  </si>
+  <si>
+    <t>-2.88%</t>
+  </si>
+  <si>
+    <t>-0.94%</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>AAME</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>10.64%</t>
+  </si>
+  <si>
+    <t>10.36%</t>
+  </si>
+  <si>
+    <t>-1.93%</t>
+  </si>
+  <si>
+    <t>-26.25%</t>
+  </si>
+  <si>
+    <t>34.09%</t>
+  </si>
+  <si>
+    <t>58.72</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.43%</t>
+  </si>
+  <si>
+    <t>10.90%</t>
+  </si>
+  <si>
+    <t>-7.64%</t>
+  </si>
+  <si>
+    <t>2,191</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>-3.95%</t>
+  </si>
+  <si>
+    <t>-0.48%</t>
+  </si>
+  <si>
+    <t>11.70%</t>
+  </si>
+  <si>
+    <t>-9.48%</t>
+  </si>
+  <si>
+    <t>47.83%</t>
+  </si>
+  <si>
+    <t>45.09</t>
+  </si>
+  <si>
+    <t>50.69</t>
+  </si>
+  <si>
+    <t>-1.80%</t>
+  </si>
+  <si>
+    <t>-1.99%</t>
+  </si>
+  <si>
+    <t>0.19%</t>
+  </si>
+  <si>
+    <t>491,629</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AAOI</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>-31.08%</t>
+  </si>
+  <si>
+    <t>-33.06%</t>
+  </si>
+  <si>
+    <t>-53.96%</t>
+  </si>
+  <si>
+    <t>11.57%</t>
+  </si>
+  <si>
+    <t>32.82</t>
+  </si>
+  <si>
+    <t>23.16</t>
+  </si>
+  <si>
+    <t>-0.90%</t>
+  </si>
+  <si>
+    <t>-0.22%</t>
+  </si>
+  <si>
+    <t>-0.68%</t>
+  </si>
+  <si>
+    <t>368,302</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AAON</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>-8.88%</t>
+  </si>
+  <si>
+    <t>-15.10%</t>
+  </si>
+  <si>
+    <t>-8.72%</t>
+  </si>
+  <si>
+    <t>-24.48%</t>
+  </si>
+  <si>
+    <t>12.56%</t>
+  </si>
+  <si>
+    <t>27.10</t>
+  </si>
+  <si>
+    <t>32.70</t>
+  </si>
+  <si>
+    <t>-0.24%</t>
   </si>
   <si>
     <t>0.25%</t>
   </si>
   <si>
-    <t>4.52%</t>
-  </si>
-  <si>
-    <t>65.27</t>
-  </si>
-  <si>
-    <t>12.27</t>
-  </si>
-  <si>
-    <t>0.57%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>6,312</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>AABA</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>-7.15%</t>
-  </si>
-  <si>
-    <t>-9.72%</t>
-  </si>
-  <si>
-    <t>-16.70%</t>
-  </si>
-  <si>
-    <t>-26.22%</t>
-  </si>
-  <si>
-    <t>5.59%</t>
-  </si>
-  <si>
-    <t>37.39</t>
-  </si>
-  <si>
-    <t>60.83</t>
-  </si>
-  <si>
-    <t>-1.86%</t>
-  </si>
-  <si>
-    <t>-0.83%</t>
-  </si>
-  <si>
-    <t>-1.03%</t>
-  </si>
-  <si>
-    <t>2,874,024</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>AAC</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>-0.02%</t>
-  </si>
-  <si>
-    <t>-12.57%</t>
-  </si>
-  <si>
-    <t>-26.59%</t>
-  </si>
-  <si>
-    <t>-44.75%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>41.84</t>
-  </si>
-  <si>
-    <t>7.16</t>
-  </si>
-  <si>
-    <t>3.47%</t>
-  </si>
-  <si>
-    <t>4.07%</t>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>91,575</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>-4.99%</t>
+  </si>
+  <si>
+    <t>-2.65%</t>
+  </si>
+  <si>
+    <t>20.40%</t>
+  </si>
+  <si>
+    <t>-7.24%</t>
+  </si>
+  <si>
+    <t>101.87%</t>
+  </si>
+  <si>
+    <t>39.20</t>
+  </si>
+  <si>
+    <t>159.09</t>
+  </si>
+  <si>
+    <t>-5.51%</t>
+  </si>
+  <si>
+    <t>-4.63%</t>
+  </si>
+  <si>
+    <t>-0.93%</t>
+  </si>
+  <si>
+    <t>1,635,660</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>-0.55%</t>
+  </si>
+  <si>
+    <t>0.82%</t>
+  </si>
+  <si>
+    <t>16.82%</t>
+  </si>
+  <si>
+    <t>-5.13%</t>
+  </si>
+  <si>
+    <t>47.42%</t>
+  </si>
+  <si>
+    <t>50.10</t>
+  </si>
+  <si>
+    <t>221.49</t>
+  </si>
+  <si>
+    <t>-0.30%</t>
+  </si>
+  <si>
+    <t>17,827,454</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>AAT</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>-0.38%</t>
+  </si>
+  <si>
+    <t>-3.74%</t>
+  </si>
+  <si>
+    <t>2.03%</t>
+  </si>
+  <si>
+    <t>-10.27%</t>
+  </si>
+  <si>
+    <t>19.79%</t>
+  </si>
+  <si>
+    <t>45.12</t>
+  </si>
+  <si>
+    <t>36.68</t>
+  </si>
+  <si>
+    <t>-0.57%</t>
+  </si>
+  <si>
+    <t>60,530</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>AAU</t>
+  </si>
+  <si>
+    <t>-0.94</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-7.52%</t>
+  </si>
+  <si>
+    <t>-11.04%</t>
+  </si>
+  <si>
+    <t>-27.86%</t>
+  </si>
+  <si>
+    <t>-52.17%</t>
+  </si>
+  <si>
+    <t>12.24%</t>
+  </si>
+  <si>
+    <t>41.10</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>-0.88%</t>
+  </si>
+  <si>
+    <t>-2.64%</t>
+  </si>
+  <si>
+    <t>1.80%</t>
+  </si>
+  <si>
+    <t>139,311</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>AAWW</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>-10.70%</t>
+  </si>
+  <si>
+    <t>-12.41%</t>
+  </si>
+  <si>
+    <t>-15.83%</t>
+  </si>
+  <si>
+    <t>-28.98%</t>
+  </si>
+  <si>
+    <t>5.57%</t>
+  </si>
+  <si>
+    <t>28.94</t>
+  </si>
+  <si>
+    <t>53.47</t>
+  </si>
+  <si>
+    <t>-0.61%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>139,831</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>AAXJ</t>
+  </si>
+  <si>
+    <t>-4.90%</t>
+  </si>
+  <si>
+    <t>-6.77%</t>
+  </si>
+  <si>
+    <t>-13.29%</t>
+  </si>
+  <si>
+    <t>-22.49%</t>
+  </si>
+  <si>
+    <t>3.30%</t>
+  </si>
+  <si>
+    <t>37.42</t>
+  </si>
+  <si>
+    <t>64.74</t>
+  </si>
+  <si>
+    <t>-1.21%</t>
+  </si>
+  <si>
+    <t>-0.63%</t>
   </si>
   <si>
     <t>-0.58%</t>
   </si>
   <si>
-    <t>43,158</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>AADR</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>-5.54%</t>
-  </si>
-  <si>
-    <t>-5.50%</t>
-  </si>
-  <si>
-    <t>-14.13%</t>
-  </si>
-  <si>
-    <t>-23.81%</t>
-  </si>
-  <si>
-    <t>3.07%</t>
-  </si>
-  <si>
-    <t>35.49</t>
-  </si>
-  <si>
-    <t>48.76</t>
-  </si>
-  <si>
-    <t>0.10%</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>-0.23%</t>
-  </si>
-  <si>
-    <t>6,676</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>-17.13%</t>
-  </si>
-  <si>
-    <t>-17.81%</t>
-  </si>
-  <si>
-    <t>-29.23%</t>
-  </si>
-  <si>
-    <t>-46.04%</t>
-  </si>
-  <si>
-    <t>3.67%</t>
-  </si>
-  <si>
-    <t>28.11</t>
-  </si>
-  <si>
-    <t>31.88</t>
-  </si>
-  <si>
-    <t>3.14%</t>
-  </si>
-  <si>
-    <t>2.84%</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>6,229,407</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>AAMC</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>-9.47%</t>
-  </si>
-  <si>
-    <t>-14.98%</t>
-  </si>
-  <si>
-    <t>-24.51%</t>
-  </si>
-  <si>
-    <t>-40.51%</t>
-  </si>
-  <si>
-    <t>11.70%</t>
-  </si>
-  <si>
-    <t>36.51</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>AAME</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>3.97%</t>
-  </si>
-  <si>
-    <t>4.70%</t>
-  </si>
-  <si>
-    <t>-7.88%</t>
-  </si>
-  <si>
-    <t>-30.54%</t>
-  </si>
-  <si>
-    <t>26.29%</t>
-  </si>
-  <si>
-    <t>55.16</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>-0.42%</t>
-  </si>
-  <si>
-    <t>1.45%</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>AAN</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>-4.77%</t>
-  </si>
-  <si>
-    <t>-0.76%</t>
-  </si>
-  <si>
-    <t>11.22%</t>
-  </si>
-  <si>
-    <t>-10.09%</t>
-  </si>
-  <si>
-    <t>46.84%</t>
-  </si>
-  <si>
-    <t>43.06</t>
-  </si>
-  <si>
-    <t>50.35</t>
+    <t>449,970</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>AAXN</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>-2.44%</t>
+  </si>
+  <si>
+    <t>-5.14%</t>
+  </si>
+  <si>
+    <t>19.59%</t>
+  </si>
+  <si>
+    <t>-19.02%</t>
+  </si>
+  <si>
+    <t>200.97%</t>
+  </si>
+  <si>
+    <t>47.12</t>
+  </si>
+  <si>
+    <t>61.91</t>
+  </si>
+  <si>
+    <t>1.09%</t>
+  </si>
+  <si>
+    <t>-1.31%</t>
+  </si>
+  <si>
+    <t>366,235</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.64</t>
   </si>
   <si>
     <t>0.96%</t>
   </si>
   <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>-0.28%</t>
-  </si>
-  <si>
-    <t>142,861</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>AAOI</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>-17.14%</t>
-  </si>
-  <si>
-    <t>-33.85%</t>
-  </si>
-  <si>
-    <t>-34.79%</t>
-  </si>
-  <si>
-    <t>-54.95%</t>
-  </si>
-  <si>
-    <t>9.16%</t>
-  </si>
-  <si>
-    <t>29.43</t>
-  </si>
-  <si>
-    <t>22.66</t>
-  </si>
-  <si>
-    <t>-1.13%</t>
-  </si>
-  <si>
-    <t>-1.09%</t>
-  </si>
-  <si>
-    <t>-0.04%</t>
-  </si>
-  <si>
-    <t>502,729</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>AAON</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>-13.03%</t>
-  </si>
-  <si>
-    <t>-17.74%</t>
-  </si>
-  <si>
-    <t>-11.11%</t>
-  </si>
-  <si>
-    <t>-26.37%</t>
-  </si>
-  <si>
-    <t>9.74%</t>
-  </si>
-  <si>
-    <t>21.41</t>
-  </si>
-  <si>
-    <t>-0.03%</t>
-  </si>
-  <si>
-    <t>50,811</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>3.17%</t>
-  </si>
-  <si>
-    <t>27.55%</t>
-  </si>
-  <si>
-    <t>-2.23%</t>
-  </si>
-  <si>
-    <t>112.75%</t>
-  </si>
-  <si>
-    <t>53.74</t>
-  </si>
-  <si>
-    <t>167.67</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.62%</t>
-  </si>
-  <si>
-    <t>-0.07%</t>
-  </si>
-  <si>
-    <t>337,641</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>-1.73%</t>
-  </si>
-  <si>
-    <t>-0.25%</t>
-  </si>
-  <si>
-    <t>15.65%</t>
-  </si>
-  <si>
-    <t>-6.33%</t>
-  </si>
-  <si>
-    <t>45.56%</t>
-  </si>
-  <si>
-    <t>46.91</t>
-  </si>
-  <si>
-    <t>218.69</t>
-  </si>
-  <si>
-    <t>-1.54%</t>
-  </si>
-  <si>
-    <t>-1.06%</t>
-  </si>
-  <si>
-    <t>-0.48%</t>
-  </si>
-  <si>
-    <t>17,783,866</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>AAT</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>-2.24%</t>
-  </si>
-  <si>
-    <t>-5.26%</t>
-  </si>
-  <si>
-    <t>0.61%</t>
-  </si>
-  <si>
-    <t>-13.19%</t>
-  </si>
-  <si>
-    <t>18.19%</t>
-  </si>
-  <si>
-    <t>40.62</t>
-  </si>
-  <si>
-    <t>36.19</t>
-  </si>
-  <si>
-    <t>2.06%</t>
-  </si>
-  <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>-0.20%</t>
-  </si>
-  <si>
-    <t>61,602</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>AAU</t>
-  </si>
-  <si>
-    <t>-0.94</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-10.74%</t>
-  </si>
-  <si>
-    <t>-13.27%</t>
-  </si>
-  <si>
-    <t>-29.60%</t>
-  </si>
-  <si>
-    <t>-55.00%</t>
-  </si>
-  <si>
-    <t>10.20%</t>
-  </si>
-  <si>
-    <t>39.26</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>8.00%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
-  </si>
-  <si>
-    <t>2.00%</t>
-  </si>
-  <si>
-    <t>989,707</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>AAWW</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>-12.78%</t>
-  </si>
-  <si>
-    <t>-13.58%</t>
-  </si>
-  <si>
-    <t>-16.48%</t>
-  </si>
-  <si>
-    <t>-29.47%</t>
-  </si>
-  <si>
-    <t>4.84%</t>
-  </si>
-  <si>
-    <t>25.70</t>
-  </si>
-  <si>
-    <t>53.10</t>
-  </si>
-  <si>
-    <t>-0.05%</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
-    <t>-0.06%</t>
-  </si>
-  <si>
-    <t>84,910</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>AAXJ</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>-5.92%</t>
-  </si>
-  <si>
-    <t>-7.56%</t>
-  </si>
-  <si>
-    <t>-13.82%</t>
-  </si>
-  <si>
-    <t>-22.84%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>33.47</t>
-  </si>
-  <si>
-    <t>64.44</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>-1.00%</t>
-  </si>
-  <si>
-    <t>579,883</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>AAXN</t>
-  </si>
-  <si>
-    <t>-13.72%</t>
-  </si>
-  <si>
-    <t>10.06%</t>
-  </si>
-  <si>
-    <t>-25.94%</t>
-  </si>
-  <si>
-    <t>175.26%</t>
-  </si>
-  <si>
-    <t>34.23</t>
-  </si>
-  <si>
-    <t>56.62</t>
-  </si>
-  <si>
-    <t>-3.81%</t>
-  </si>
-  <si>
-    <t>-0.93%</t>
-  </si>
-  <si>
-    <t>-2.91%</t>
-  </si>
-  <si>
-    <t>486,103</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>-1.51%</t>
-  </si>
-  <si>
-    <t>-0.84%</t>
-  </si>
-  <si>
-    <t>5.79%</t>
-  </si>
-  <si>
-    <t>-4.67%</t>
-  </si>
-  <si>
-    <t>24.06%</t>
-  </si>
-  <si>
-    <t>47.03</t>
-  </si>
-  <si>
-    <t>29.78</t>
-  </si>
-  <si>
-    <t>1.99%</t>
-  </si>
-  <si>
-    <t>2.13%</t>
-  </si>
-  <si>
-    <t>-0.14%</t>
-  </si>
-  <si>
-    <t>237,751</t>
+    <t>1.37%</t>
+  </si>
+  <si>
+    <t>8.22%</t>
+  </si>
+  <si>
+    <t>-2.31%</t>
+  </si>
+  <si>
+    <t>27.14%</t>
+  </si>
+  <si>
+    <t>54.09</t>
+  </si>
+  <si>
+    <t>30.52</t>
+  </si>
+  <si>
+    <t>-0.10%</t>
+  </si>
+  <si>
+    <t>0.16%</t>
+  </si>
+  <si>
+    <t>241,223</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1418,10 @@
         <v>54</v>
       </c>
       <c r="BF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" t="s">
         <v>55</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>54</v>
       </c>
       <c r="BH1" t="s">
         <v>56</v>
@@ -1508,643 +1505,643 @@
         <v>82</v>
       </c>
       <c r="CI1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CJ1" t="s">
         <v>83</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CL1" t="s">
         <v>84</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>86</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>88</v>
       </c>
       <c r="CO1" t="s">
         <v>32</v>
       </c>
       <c r="CP1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CR1" t="s">
         <v>89</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>90</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>91</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>92</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>93</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>94</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>95</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>96</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>97</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>98</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>99</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>100</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>101</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>102</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>103</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>104</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>105</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>106</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>107</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>108</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>109</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>110</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>111</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>112</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>113</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>114</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>115</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
+        <v>18</v>
+      </c>
+      <c r="DT1" t="s">
         <v>116</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DU1" t="s">
         <v>117</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DV1" t="s">
         <v>118</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DW1" t="s">
         <v>119</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DX1" t="s">
         <v>120</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DY1" t="s">
         <v>121</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DZ1" t="s">
         <v>122</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EA1" t="s">
         <v>123</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EB1" t="s">
         <v>124</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EC1" t="s">
         <v>125</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="ED1" t="s">
         <v>126</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EE1" t="s">
         <v>127</v>
       </c>
-      <c r="EC1" t="s">
-        <v>55</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>128</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>129</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>130</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>131</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>132</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>133</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>134</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>135</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>136</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>137</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>138</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>139</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>140</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>141</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>142</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>143</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>144</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>145</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>146</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>147</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>148</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>149</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>150</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>151</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>152</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>153</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>154</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>155</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>156</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>157</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>158</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>159</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>160</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>161</v>
       </c>
-      <c r="FM1" t="s">
-        <v>59</v>
-      </c>
       <c r="FN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="FO1" t="s">
         <v>162</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>163</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>164</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>165</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>166</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>167</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>168</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>169</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>170</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>171</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>172</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>173</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GA1" t="s">
         <v>174</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GB1" t="s">
         <v>175</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GC1" t="s">
         <v>176</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GD1" t="s">
         <v>177</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GE1" t="s">
         <v>178</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GF1" t="s">
         <v>179</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GG1" t="s">
         <v>180</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GH1" t="s">
         <v>181</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GI1" t="s">
         <v>182</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>111</v>
       </c>
       <c r="GJ1" t="s">
         <v>183</v>
       </c>
       <c r="GK1" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="GL1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="GM1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="GN1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="GO1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="GP1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="GQ1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="GR1" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="GS1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="GT1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="GU1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="GV1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="GW1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="GX1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="GY1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="GZ1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="HA1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="HB1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="HC1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="HD1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="HE1" t="s">
         <v>74</v>
       </c>
       <c r="HF1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="HG1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="HH1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="HI1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="HJ1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="HK1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="HL1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="HM1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="HN1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="HO1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="HP1" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="HQ1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="HR1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="HS1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="HT1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="HU1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="HV1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="HW1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="HX1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="HY1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="HZ1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="IA1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="IB1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="IC1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="ID1" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="IE1" t="s">
+        <v>183</v>
+      </c>
+      <c r="IF1" t="s">
         <v>226</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IG1" t="s">
         <v>227</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="IH1" t="s">
         <v>228</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="II1" t="s">
         <v>229</v>
       </c>
-      <c r="II1" t="s">
+      <c r="IJ1" t="s">
         <v>230</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IK1" t="s">
         <v>231</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="IL1" t="s">
         <v>232</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="IM1" t="s">
         <v>233</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="IN1" t="s">
         <v>234</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="IO1" t="s">
         <v>235</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="IP1" t="s">
         <v>236</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="IQ1" t="s">
         <v>237</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IR1" t="s">
         <v>238</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="IS1" t="s">
         <v>239</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="IT1" t="s">
         <v>240</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="IU1" t="s">
         <v>241</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="IV1" t="s">
         <v>242</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="IW1" t="s">
         <v>243</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="IX1" t="s">
         <v>244</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="IY1" t="s">
+        <v>60</v>
+      </c>
+      <c r="IZ1" t="s">
         <v>245</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="JA1" t="s">
         <v>246</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="JB1" t="s">
         <v>247</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JC1" t="s">
         <v>248</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="JD1" t="s">
         <v>249</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="JE1" t="s">
         <v>250</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JF1" t="s">
         <v>251</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="JG1" t="s">
         <v>252</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="JH1" t="s">
         <v>253</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="JI1" t="s">
         <v>254</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="JJ1" t="s">
         <v>255</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="JK1" t="s">
         <v>256</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="JL1" t="s">
         <v>257</v>
-      </c>
-      <c r="JK1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JL1" t="s">
-        <v>259</v>
       </c>
       <c r="JM1" t="s">
         <v>32</v>
       </c>
       <c r="JN1" t="s">
+        <v>175</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JQ1" t="s">
         <v>260</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="JR1" t="s">
         <v>261</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="JS1" t="s">
         <v>262</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="JT1" t="s">
         <v>263</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="JU1" t="s">
         <v>264</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JV1" t="s">
         <v>265</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="JW1" t="s">
         <v>266</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="JX1" t="s">
         <v>267</v>
       </c>
-      <c r="JV1" t="s">
-        <v>69</v>
-      </c>
-      <c r="JW1" t="s">
+      <c r="JY1" t="s">
         <v>268</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="JZ1" t="s">
         <v>269</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="KA1" t="s">
         <v>270</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="KB1" t="s">
         <v>271</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KC1" t="s">
         <v>272</v>
       </c>
-      <c r="KB1" t="s">
-        <v>176</v>
-      </c>
-      <c r="KC1" t="s">
+      <c r="KD1" t="s">
+        <v>273</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>274</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>275</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>276</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>277</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>278</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>279</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>280</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>281</v>
+      </c>
+      <c r="KM1" t="s">
         <v>139</v>
-      </c>
-      <c r="KD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="KE1" t="s">
-        <v>273</v>
-      </c>
-      <c r="KF1" t="s">
-        <v>274</v>
-      </c>
-      <c r="KG1" t="s">
-        <v>275</v>
-      </c>
-      <c r="KH1" t="s">
-        <v>276</v>
-      </c>
-      <c r="KI1" t="s">
-        <v>277</v>
-      </c>
-      <c r="KJ1" t="s">
-        <v>278</v>
-      </c>
-      <c r="KK1" t="s">
-        <v>279</v>
-      </c>
-      <c r="KL1" t="s">
-        <v>280</v>
-      </c>
-      <c r="KM1" t="s">
-        <v>281</v>
       </c>
       <c r="KN1" t="s">
         <v>282</v>
@@ -2183,16 +2180,16 @@
         <v>293</v>
       </c>
       <c r="KZ1" t="s">
+        <v>254</v>
+      </c>
+      <c r="LA1" t="s">
         <v>294</v>
       </c>
-      <c r="LA1" t="s">
+      <c r="LB1" t="s">
         <v>295</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LC1" t="s">
         <v>296</v>
-      </c>
-      <c r="LC1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:315">
@@ -2327,10 +2324,10 @@
         <v>54</v>
       </c>
       <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
         <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
       </c>
       <c r="O4" t="s">
         <v>56</v>
@@ -2418,671 +2415,671 @@
         <v>82</v>
       </c>
       <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
         <v>83</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:315">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>92</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>93</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>98</v>
-      </c>
-      <c r="N7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:315">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>104</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>105</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>106</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>107</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>108</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>109</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>110</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>111</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>112</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>113</v>
-      </c>
-      <c r="N8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:315">
       <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>116</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>117</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>118</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>119</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>120</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>121</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>122</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>123</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>124</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>125</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>126</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>127</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:315">
       <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
         <v>129</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>130</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>132</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>133</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>134</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>135</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>136</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>137</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>138</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>139</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>140</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>141</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>142</v>
-      </c>
-      <c r="O10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:315">
       <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
         <v>144</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>146</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>147</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>148</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>149</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>150</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>151</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>152</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>153</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>154</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>155</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>156</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>157</v>
-      </c>
-      <c r="O11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:315">
       <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
         <v>159</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>160</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>161</v>
       </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
         <v>162</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>164</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>165</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>166</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>167</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>168</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>169</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>170</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>171</v>
-      </c>
-      <c r="O12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:315">
       <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>174</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>175</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>176</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>177</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>178</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>179</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>180</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>181</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" t="s">
-        <v>111</v>
       </c>
       <c r="L13" t="s">
         <v>183</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="N13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:315">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:315">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N15" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:315">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M16" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s">
         <v>226</v>
-      </c>
-      <c r="O16" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>229</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>230</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>231</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>232</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>233</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>234</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>235</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>236</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>237</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>238</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>239</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>240</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>241</v>
-      </c>
-      <c r="O17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s">
         <v>243</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>244</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
         <v>245</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>246</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>247</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>248</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>249</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>250</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>251</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>252</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>253</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>254</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>255</v>
-      </c>
-      <c r="N18" t="s">
-        <v>256</v>
-      </c>
-      <c r="O18" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" t="s">
         <v>260</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>261</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>262</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>263</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>264</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>265</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
         <v>266</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>267</v>
       </c>
-      <c r="L19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>268</v>
-      </c>
-      <c r="N19" t="s">
-        <v>269</v>
-      </c>
-      <c r="O19" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
         <v>271</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>272</v>
       </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" t="s">
+        <v>277</v>
+      </c>
+      <c r="J20" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" t="s">
+        <v>279</v>
+      </c>
+      <c r="L20" t="s">
+        <v>280</v>
+      </c>
+      <c r="M20" t="s">
+        <v>281</v>
+      </c>
+      <c r="N20" t="s">
         <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" t="s">
-        <v>274</v>
-      </c>
-      <c r="H20" t="s">
-        <v>275</v>
-      </c>
-      <c r="I20" t="s">
-        <v>276</v>
-      </c>
-      <c r="J20" t="s">
-        <v>277</v>
-      </c>
-      <c r="K20" t="s">
-        <v>278</v>
-      </c>
-      <c r="L20" t="s">
-        <v>279</v>
-      </c>
-      <c r="M20" t="s">
-        <v>280</v>
-      </c>
-      <c r="N20" t="s">
-        <v>281</v>
       </c>
       <c r="O20" t="s">
         <v>282</v>
@@ -3123,16 +3120,16 @@
         <v>293</v>
       </c>
       <c r="L21" t="s">
+        <v>254</v>
+      </c>
+      <c r="M21" t="s">
         <v>294</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>295</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>296</v>
-      </c>
-      <c r="O21" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
